--- a/DOCS/Test Cases/TC02- Incident.xlsx
+++ b/DOCS/Test Cases/TC02- Incident.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="154">
   <si>
     <t>Intput Type</t>
   </si>
@@ -453,10 +453,31 @@
     <t>TC02.23</t>
   </si>
   <si>
-    <t>Close an incident</t>
-  </si>
-  <si>
     <t>Successfully closed</t>
+  </si>
+  <si>
+    <t>TC02.24</t>
+  </si>
+  <si>
+    <t>Close an incident of which all of the resources are collected</t>
+  </si>
+  <si>
+    <t>Close an incident of which all of the resources are not collected</t>
+  </si>
+  <si>
+    <t>TC02.25</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -612,9 +633,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -641,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,346 +1008,346 @@
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" ht="45">
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="45">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" ht="75">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" ht="30">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3"/>
@@ -1351,770 +1372,866 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="32.25" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="16" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:15" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" ht="33.75" customHeight="1" thickTop="1">
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" ht="33.75" customHeight="1" thickTop="1">
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>81</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>83</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>84</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="33.75" customHeight="1">
+    <row r="5" spans="1:15" ht="33.75" customHeight="1">
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>76</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>79</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>81</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>82</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>83</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>84</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="21" customHeight="1">
+    <row r="6" spans="1:15" ht="21" customHeight="1">
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="32.25" customHeight="1">
+    <row r="7" spans="1:15" ht="32.25" customHeight="1">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>79</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>94</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33" customHeight="1">
+    <row r="8" spans="1:15" ht="33" customHeight="1">
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>79</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>82</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>84</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>85</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="33" customHeight="1">
+    <row r="9" spans="1:15" ht="33" customHeight="1">
       <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>87</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>95</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>82</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33" customHeight="1">
+    <row r="10" spans="1:15" ht="33" customHeight="1">
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>87</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>79</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>95</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>82</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>96</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>85</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="33" customHeight="1">
+    <row r="11" spans="1:15" ht="33" customHeight="1">
       <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>87</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>82</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>96</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>84</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>85</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>76</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>79</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>82</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>83</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>84</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>85</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30">
+    <row r="13" spans="1:15" ht="30">
       <c r="A13" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>76</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>77</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>83</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>83</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>84</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>85</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30">
+    <row r="14" spans="1:15" ht="30">
       <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>77</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>82</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>113</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>84</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>85</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30">
+    <row r="15" spans="1:15" ht="30">
       <c r="A15" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30">
+    <row r="16" spans="1:15" ht="30">
       <c r="A16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>98</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>100</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30">
+    <row r="18" spans="1:15" ht="30">
       <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>102</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>85</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>132</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30">
+    <row r="22" spans="1:15" ht="30">
       <c r="A22" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>83</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>100</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30">
+    <row r="24" spans="1:15" ht="30">
       <c r="A24" t="s">
         <v>141</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>79</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30">
+    <row r="25" spans="1:15" ht="30">
       <c r="A25" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>133</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="B27" s="7" t="s">
+    <row r="27" spans="1:15" ht="30">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O27" t="s">
         <v>145</v>
       </c>
-      <c r="N27" t="s">
-        <v>146</v>
+    </row>
+    <row r="28" spans="1:15" ht="30">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O28" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
